--- a/data/trans_orig/P0802-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>481488</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>473313</v>
+        <v>473890</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>487262</v>
+        <v>487245</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.974546779710513</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9579987950107526</v>
+        <v>0.9591668945592936</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9862331519128114</v>
+        <v>0.9861987402396584</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>477</v>
@@ -765,19 +765,19 @@
         <v>455205</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>446595</v>
+        <v>446749</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>460752</v>
+        <v>460458</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9737233952137133</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9553068977043964</v>
+        <v>0.955634271980237</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9855895566939913</v>
+        <v>0.9849593969039935</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>963</v>
@@ -786,19 +786,19 @@
         <v>936693</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>926181</v>
+        <v>925759</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>945166</v>
+        <v>945217</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9741464655446872</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9632138683700653</v>
+        <v>0.9627752142330409</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9829576887726712</v>
+        <v>0.9830112143576504</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>11612</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6111</v>
+        <v>6270</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19465</v>
+        <v>20021</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02350288649378045</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01236785151025561</v>
+        <v>0.01269094214343733</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03939872268241554</v>
+        <v>0.04052264072954505</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -836,19 +836,19 @@
         <v>8540</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3827</v>
+        <v>3807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17307</v>
+        <v>16207</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01826861377032185</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00818600897492131</v>
+        <v>0.008143833702290271</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03702155020053585</v>
+        <v>0.03466714702246671</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -857,19 +857,19 @@
         <v>20152</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12199</v>
+        <v>12629</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29781</v>
+        <v>30279</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02095808084448763</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01268685600881504</v>
+        <v>0.01313392727740653</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03097205492833567</v>
+        <v>0.03148918880781468</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5341</v>
+        <v>4870</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.001950333795706578</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01080977227464392</v>
+        <v>0.009857887496854739</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -907,19 +907,19 @@
         <v>3744</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9352</v>
+        <v>8401</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.008007991015964827</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002038069222496434</v>
+        <v>0.002016285488823774</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02000458247639544</v>
+        <v>0.01797017238009988</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -928,7 +928,7 @@
         <v>4707</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1872</v>
+        <v>1860</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>10393</v>
@@ -937,10 +937,10 @@
         <v>0.004895453610825163</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001946447668576026</v>
+        <v>0.001934419356005536</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.010808146077312</v>
+        <v>0.01080863904293984</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>713216</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>700786</v>
+        <v>701156</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>721564</v>
+        <v>722268</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9697169797428556</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9528168208614012</v>
+        <v>0.9533197761900821</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9810673381858586</v>
+        <v>0.9820236258597739</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>559</v>
@@ -1053,19 +1053,19 @@
         <v>589718</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>575317</v>
+        <v>576178</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>600141</v>
+        <v>600025</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9428043551131858</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9197807239061557</v>
+        <v>0.9211566467558543</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9594666768718001</v>
+        <v>0.9592822270790698</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1242</v>
@@ -1074,19 +1074,19 @@
         <v>1302934</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1286317</v>
+        <v>1285817</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1317044</v>
+        <v>1317494</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9573482084786747</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9451385992102601</v>
+        <v>0.9447714634067791</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9677156573870443</v>
+        <v>0.9680468362554593</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>15902</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9113</v>
+        <v>8736</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27509</v>
+        <v>27206</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0216204908013068</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01239008220590593</v>
+        <v>0.01187791879164593</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03740200963543921</v>
+        <v>0.03699004115954381</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>29</v>
@@ -1124,19 +1124,19 @@
         <v>32656</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22585</v>
+        <v>22798</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46164</v>
+        <v>46759</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05220851892715957</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03610680311973338</v>
+        <v>0.03644776611222332</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07380366660652074</v>
+        <v>0.07475457820014583</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>43</v>
@@ -1145,19 +1145,19 @@
         <v>48558</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>36698</v>
+        <v>35144</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>65019</v>
+        <v>65308</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03567844050027109</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02696403248063528</v>
+        <v>0.02582253232332313</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04777328033518358</v>
+        <v>0.047986304710482</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>6371</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2415</v>
+        <v>2872</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13575</v>
+        <v>13544</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008662529455837509</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003283613365476006</v>
+        <v>0.003904314693970519</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01845654612906018</v>
+        <v>0.01841541527584069</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1195,19 +1195,19 @@
         <v>3119</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8543</v>
+        <v>8157</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004987125959654647</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0</v>
+        <v>0.001494642136895016</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01365786119659544</v>
+        <v>0.01304010024297755</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1216,19 +1216,19 @@
         <v>9491</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4420</v>
+        <v>4696</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17416</v>
+        <v>18107</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006973351021054188</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003247322049715334</v>
+        <v>0.003450087630995043</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01279680141854688</v>
+        <v>0.01330436345584418</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>606978</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>595164</v>
+        <v>594957</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>617050</v>
+        <v>616677</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.950381787151489</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.931882673432099</v>
+        <v>0.9315587167698101</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9661515592368086</v>
+        <v>0.9655680660859967</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>610</v>
@@ -1341,19 +1341,19 @@
         <v>639377</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>622741</v>
+        <v>624279</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>651561</v>
+        <v>652545</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9269767598538421</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9028586146196173</v>
+        <v>0.9050883225665973</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.944641719781822</v>
+        <v>0.9460684034871163</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1192</v>
@@ -1362,19 +1362,19 @@
         <v>1246355</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1228355</v>
+        <v>1228157</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1263042</v>
+        <v>1261966</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9382293185829009</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.924679030324897</v>
+        <v>0.9245301719397603</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.950790494860962</v>
+        <v>0.9499810276695043</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>20329</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12165</v>
+        <v>13330</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30536</v>
+        <v>30964</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03183042665044067</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01904695494653725</v>
+        <v>0.02087126491251462</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04781154394588798</v>
+        <v>0.04848234493428867</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -1412,19 +1412,19 @@
         <v>39696</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29816</v>
+        <v>28246</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54461</v>
+        <v>52368</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05755162278634562</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04322696684563169</v>
+        <v>0.04095103547289036</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07895802902519068</v>
+        <v>0.07592312422060449</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -1433,19 +1433,19 @@
         <v>60025</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45456</v>
+        <v>46993</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>75969</v>
+        <v>76177</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04518550731806718</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03421837915242136</v>
+        <v>0.03537516325991011</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0571881683542127</v>
+        <v>0.05734451604745176</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>11360</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5908</v>
+        <v>5833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19459</v>
+        <v>19261</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01778778619807029</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009251119313708591</v>
+        <v>0.009132766768087443</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03046795393544007</v>
+        <v>0.0301577435522047</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1483,19 +1483,19 @@
         <v>10671</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5359</v>
+        <v>5371</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20114</v>
+        <v>19210</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0154716173598123</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007769210578415183</v>
+        <v>0.007787348153089946</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02916155478108095</v>
+        <v>0.02785055822664815</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>21</v>
@@ -1504,19 +1504,19 @@
         <v>22032</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14104</v>
+        <v>14186</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>33210</v>
+        <v>32872</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01658517409903192</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01061705554543387</v>
+        <v>0.01067879778112166</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02499956310551799</v>
+        <v>0.02474520295477204</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>468238</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>453007</v>
+        <v>453955</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>480163</v>
+        <v>481456</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9019372006320835</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8725993205659585</v>
+        <v>0.8744249512354962</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9249078288393197</v>
+        <v>0.9273972731197475</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>419</v>
@@ -1629,19 +1629,19 @@
         <v>432467</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>414562</v>
+        <v>415742</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>447667</v>
+        <v>448882</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8386965732112601</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8039731724607349</v>
+        <v>0.8062609855706023</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8681735053235878</v>
+        <v>0.8705308115225131</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>855</v>
@@ -1650,19 +1650,19 @@
         <v>900705</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>878224</v>
+        <v>880435</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>922077</v>
+        <v>922802</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.870423991717637</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.848698960505976</v>
+        <v>0.8508355330771731</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8910772673661802</v>
+        <v>0.8917782801536637</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>38451</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28398</v>
+        <v>27561</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53221</v>
+        <v>52508</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07406499548429216</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05470047100282464</v>
+        <v>0.05308902441146634</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1025158828663115</v>
+        <v>0.1011427578886068</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -1700,19 +1700,19 @@
         <v>60771</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48210</v>
+        <v>48097</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>76212</v>
+        <v>77155</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1178546687926652</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09349418394024488</v>
+        <v>0.09327678582186753</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1477999275079412</v>
+        <v>0.1496285761345226</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>96</v>
@@ -1721,19 +1721,19 @@
         <v>99221</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>79967</v>
+        <v>81888</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>119946</v>
+        <v>119834</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09588566962276129</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07727833754163227</v>
+        <v>0.07913471984004981</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1159138291641345</v>
+        <v>0.1158047938966767</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>12458</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6329</v>
+        <v>6964</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20143</v>
+        <v>20906</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02399780388362437</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01219209594752924</v>
+        <v>0.01341490765329522</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03879947451024006</v>
+        <v>0.04027072251825239</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -1771,19 +1771,19 @@
         <v>22404</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14075</v>
+        <v>14178</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>32445</v>
+        <v>32361</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0434487579960747</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02729632822474015</v>
+        <v>0.02749606094744638</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06292074594159462</v>
+        <v>0.06275777937561107</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>35</v>
@@ -1792,19 +1792,19 @@
         <v>34862</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>24174</v>
+        <v>23989</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>47687</v>
+        <v>47423</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03369033865960178</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0233612464812046</v>
+        <v>0.0231826932968473</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04608411058369279</v>
+        <v>0.04582822521898157</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>290950</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>272813</v>
+        <v>275405</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>306469</v>
+        <v>309063</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7523730856151151</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7054719111497972</v>
+        <v>0.71217513087933</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7925028314972691</v>
+        <v>0.7992107567078569</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>273</v>
@@ -1917,19 +1917,19 @@
         <v>279265</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>258597</v>
+        <v>259268</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>295894</v>
+        <v>296721</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6912745720350419</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6401144533394383</v>
+        <v>0.6417749928554219</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7324370998382258</v>
+        <v>0.7344830614819969</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>566</v>
@@ -1938,19 +1938,19 @@
         <v>570215</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>545338</v>
+        <v>543842</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>593019</v>
+        <v>594258</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7211563570861291</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6896932435863895</v>
+        <v>0.6878013701289101</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.749996167621217</v>
+        <v>0.7515635188998219</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>75425</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>60959</v>
+        <v>59453</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>90773</v>
+        <v>89799</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1950423717469366</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1576359411767353</v>
+        <v>0.1537403074189631</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2347312451955869</v>
+        <v>0.2322127359663476</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>96</v>
@@ -1988,19 +1988,19 @@
         <v>96352</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>81268</v>
+        <v>80654</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>116035</v>
+        <v>113256</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2385032207133191</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2011652222537439</v>
+        <v>0.1996457708037982</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2872263987425314</v>
+        <v>0.2803456773179026</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>174</v>
@@ -2009,19 +2009,19 @@
         <v>171777</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>150846</v>
+        <v>150311</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>195220</v>
+        <v>196044</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2172475850054356</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1907759369250728</v>
+        <v>0.190099337604491</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2468963264711767</v>
+        <v>0.2479387132146465</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>20335</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13411</v>
+        <v>12596</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31236</v>
+        <v>29199</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05258454263794832</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0346786200910913</v>
+        <v>0.03257209825521459</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08077256749091229</v>
+        <v>0.0755070620074801</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -2059,19 +2059,19 @@
         <v>28369</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18963</v>
+        <v>19402</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>39152</v>
+        <v>40321</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07022220725163904</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04693851367992021</v>
+        <v>0.04802562124565351</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09691352556059087</v>
+        <v>0.0998084389037969</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -2080,19 +2080,19 @@
         <v>48704</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36881</v>
+        <v>36456</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65073</v>
+        <v>63982</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06159605790843529</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04664353110852862</v>
+        <v>0.04610607955659644</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08229792476306355</v>
+        <v>0.08091895622052506</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>191620</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>176343</v>
+        <v>176185</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>207233</v>
+        <v>205800</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6549259701196327</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6027106067177632</v>
+        <v>0.6021693885814604</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7082865687940011</v>
+        <v>0.7033907180789539</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>144</v>
@@ -2205,19 +2205,19 @@
         <v>132431</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>116128</v>
+        <v>115700</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>150421</v>
+        <v>152033</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3861718845083917</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3386309116746273</v>
+        <v>0.3373825589947315</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4386300776391281</v>
+        <v>0.4433294932942278</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>341</v>
@@ -2226,19 +2226,19 @@
         <v>324052</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>300911</v>
+        <v>300730</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>350904</v>
+        <v>349764</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5099024484175493</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4734896741343247</v>
+        <v>0.4732047498867462</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5521545702953634</v>
+        <v>0.5503615136145779</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>76070</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>62470</v>
+        <v>63340</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>90936</v>
+        <v>91629</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2599941491420074</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2135121172035517</v>
+        <v>0.2164858572437204</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3108026255661122</v>
+        <v>0.3131732294004563</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>172</v>
@@ -2276,19 +2276,19 @@
         <v>158762</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>142539</v>
+        <v>139623</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>176974</v>
+        <v>177274</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4629509771275679</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4156464087464575</v>
+        <v>0.4071420185013211</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5160573409232535</v>
+        <v>0.5169324557355335</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>252</v>
@@ -2297,19 +2297,19 @@
         <v>234831</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>209914</v>
+        <v>208861</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>259149</v>
+        <v>257405</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3695125361127871</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3303048836623018</v>
+        <v>0.328646906262784</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4077760555634197</v>
+        <v>0.4050324500606243</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>24893</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16828</v>
+        <v>16780</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>35703</v>
+        <v>34862</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08507988073835984</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05751392245027114</v>
+        <v>0.05735089095061407</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1220275019418348</v>
+        <v>0.1191523195436657</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>55</v>
@@ -2347,19 +2347,19 @@
         <v>51741</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>39040</v>
+        <v>39086</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>64350</v>
+        <v>65091</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1508771383640404</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1138416844317129</v>
+        <v>0.1139751613461668</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1876465599522212</v>
+        <v>0.1898075300248732</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>81</v>
@@ -2368,19 +2368,19 @@
         <v>76634</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>60415</v>
+        <v>60790</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>91873</v>
+        <v>92887</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1205850154696636</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09506475204122024</v>
+        <v>0.09565415210618995</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1445634500328562</v>
+        <v>0.1461602021402064</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>67737</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>55011</v>
+        <v>55583</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>82903</v>
+        <v>81037</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3227362044854974</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2621041650173959</v>
+        <v>0.2648289155930308</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3949968685981463</v>
+        <v>0.3861038305443986</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>56</v>
@@ -2493,19 +2493,19 @@
         <v>65135</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>51050</v>
+        <v>50717</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>83510</v>
+        <v>82551</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1950700775796535</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1528863722564899</v>
+        <v>0.1518890931607055</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.250099568088593</v>
+        <v>0.2472278452362049</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>126</v>
@@ -2514,19 +2514,19 @@
         <v>132872</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>113140</v>
+        <v>113369</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>152667</v>
+        <v>153012</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2443444322929223</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2080571703217345</v>
+        <v>0.2084789914614986</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2807456486617345</v>
+        <v>0.2813794961355227</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>97523</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>84391</v>
+        <v>84419</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>111821</v>
+        <v>111649</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4646523744294745</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4020856546968653</v>
+        <v>0.4022195817931677</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5327772932650799</v>
+        <v>0.5319560722536217</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>152</v>
@@ -2564,19 +2564,19 @@
         <v>175297</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>156247</v>
+        <v>155313</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>196876</v>
+        <v>194216</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5249856223575056</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4679338118403158</v>
+        <v>0.4651382695960656</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5896127699414645</v>
+        <v>0.581646676766014</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>257</v>
@@ -2585,19 +2585,19 @@
         <v>272820</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>248010</v>
+        <v>248833</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>296917</v>
+        <v>295265</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5016992430221165</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4560755637775273</v>
+        <v>0.4575895005461068</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5460132574558551</v>
+        <v>0.5429755380790445</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>44624</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>33586</v>
+        <v>33716</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>56754</v>
+        <v>56706</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.212611421085028</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1600246074028596</v>
+        <v>0.160639725605554</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2704063019692245</v>
+        <v>0.2701807912517889</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>82</v>
@@ -2635,19 +2635,19 @@
         <v>93476</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>76758</v>
+        <v>76637</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>112168</v>
+        <v>113254</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.279944300062841</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2298764930693399</v>
+        <v>0.2295143515647618</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.335924460897392</v>
+        <v>0.3391764963800603</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>127</v>
@@ -2656,19 +2656,19 @@
         <v>138099</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>118263</v>
+        <v>117759</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>160394</v>
+        <v>159885</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2539563246849612</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2174794666514005</v>
+        <v>0.2165528667733611</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2949548156389608</v>
+        <v>0.2940198170024289</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>2820227</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2782043</v>
+        <v>2776907</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2859184</v>
+        <v>2858080</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8607325945129319</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8490786432408671</v>
+        <v>0.8475111739101719</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.872622210900542</v>
+        <v>0.8722850801915306</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2538</v>
@@ -2781,19 +2781,19 @@
         <v>2593599</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2546799</v>
+        <v>2543258</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2643126</v>
+        <v>2639195</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7675194683220637</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7536697739065173</v>
+        <v>0.7526219458129769</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7821758962741636</v>
+        <v>0.7810124388057775</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5285</v>
@@ -2802,19 +2802,19 @@
         <v>5413828</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5348341</v>
+        <v>5350564</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5473463</v>
+        <v>5473740</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8134072008924328</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8035680599040773</v>
+        <v>0.8039020119138419</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8223672207040384</v>
+        <v>0.8224088606788151</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>335311</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>302079</v>
+        <v>303507</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>370527</v>
+        <v>372095</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1023366923051532</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.09219432088312927</v>
+        <v>0.09263013196652013</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1130847136292031</v>
+        <v>0.1135633804732264</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>556</v>
@@ -2852,19 +2852,19 @@
         <v>572074</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>530593</v>
+        <v>530727</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>614249</v>
+        <v>617407</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1692927825703575</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1570175986518373</v>
+        <v>0.1570570404962851</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1817737523999029</v>
+        <v>0.1827081504874692</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>900</v>
@@ -2873,19 +2873,19 @@
         <v>907384</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>854667</v>
+        <v>854996</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>962904</v>
+        <v>963915</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1363310819000479</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.128410509597045</v>
+        <v>0.1284599359425139</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1446726238186077</v>
+        <v>0.1448245419183362</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>121005</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>100627</v>
+        <v>100590</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>144209</v>
+        <v>145279</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03693071318191486</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03071145832284695</v>
+        <v>0.03069993653624647</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04401252792700989</v>
+        <v>0.04433909061627581</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>203</v>
@@ -2923,19 +2923,19 @@
         <v>213524</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>184265</v>
+        <v>185663</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>244666</v>
+        <v>242527</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06318774910757882</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05452913585807757</v>
+        <v>0.05494279247666894</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07240373657635334</v>
+        <v>0.0717707056896239</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>326</v>
@@ -2944,19 +2944,19 @@
         <v>334529</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>297347</v>
+        <v>302584</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>370959</v>
+        <v>372511</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05026171720751924</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04467523496622976</v>
+        <v>0.04546213280088623</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05573523062472669</v>
+        <v>0.05596830889805599</v>
       </c>
     </row>
     <row r="35">
@@ -3291,19 +3291,19 @@
         <v>445313</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>438094</v>
+        <v>438615</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>450101</v>
+        <v>449779</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9805506898617761</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9646545819235259</v>
+        <v>0.965801044872982</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9910942706408609</v>
+        <v>0.9903832864119554</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>406</v>
@@ -3312,19 +3312,19 @@
         <v>414823</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>405837</v>
+        <v>404863</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>421363</v>
+        <v>421258</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9641887288620558</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9433023286796682</v>
+        <v>0.9410395406047416</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.97938901761366</v>
+        <v>0.9791471017791659</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>843</v>
@@ -3333,19 +3333,19 @@
         <v>860136</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>849058</v>
+        <v>847541</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>868492</v>
+        <v>868729</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9725909491827499</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9600647223696624</v>
+        <v>0.9583488981730356</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9820392132501778</v>
+        <v>0.9823074294777515</v>
       </c>
     </row>
     <row r="5">
@@ -3362,19 +3362,19 @@
         <v>7965</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3809</v>
+        <v>3739</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14775</v>
+        <v>14670</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01753832784486946</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008386899291590956</v>
+        <v>0.008233610350990274</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03253462158353127</v>
+        <v>0.03230162518155295</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -3383,19 +3383,19 @@
         <v>10501</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5080</v>
+        <v>5684</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19054</v>
+        <v>19288</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02440733163043713</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01180816700305351</v>
+        <v>0.01321071636322662</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04428881882482581</v>
+        <v>0.04483216669523208</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -3404,19 +3404,19 @@
         <v>18466</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10608</v>
+        <v>11077</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28415</v>
+        <v>29341</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02087994984588159</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01199451254607777</v>
+        <v>0.01252560077558655</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03212948233109061</v>
+        <v>0.03317744468465914</v>
       </c>
     </row>
     <row r="6">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4385</v>
+        <v>5225</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.001910982293354487</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.009656034899884178</v>
+        <v>0.0115048841247871</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -3454,19 +3454,19 @@
         <v>4906</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1911</v>
+        <v>1855</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10987</v>
+        <v>10959</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0114039395075071</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004441634935614796</v>
+        <v>0.004310937492801764</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02553853923440274</v>
+        <v>0.02547231026873445</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -3475,19 +3475,19 @@
         <v>5774</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1972</v>
+        <v>2013</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12438</v>
+        <v>13319</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006529100971368526</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002229720161653639</v>
+        <v>0.002275892497703672</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0140636010468073</v>
+        <v>0.01506020437267859</v>
       </c>
     </row>
     <row r="7">
@@ -3579,19 +3579,19 @@
         <v>660690</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>648562</v>
+        <v>648573</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>669727</v>
+        <v>670201</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.961580730719209</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9439295403705883</v>
+        <v>0.9439459232151582</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9747341199696828</v>
+        <v>0.9754242652958922</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>547</v>
@@ -3600,19 +3600,19 @@
         <v>583368</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>571236</v>
+        <v>570071</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>592896</v>
+        <v>592671</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9559410009697341</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9360608754680262</v>
+        <v>0.9341516649107613</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9715544394036271</v>
+        <v>0.9711862737742868</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1188</v>
@@ -3621,19 +3621,19 @@
         <v>1244057</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1228731</v>
+        <v>1227123</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1257516</v>
+        <v>1256296</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.958927864787691</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9471140722383491</v>
+        <v>0.9458744357760277</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9693020702571892</v>
+        <v>0.9683614672376689</v>
       </c>
     </row>
     <row r="9">
@@ -3650,19 +3650,19 @@
         <v>20689</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13071</v>
+        <v>13225</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>31347</v>
+        <v>31949</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03011136145805372</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01902433456004653</v>
+        <v>0.01924857558111539</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04562336108791085</v>
+        <v>0.04649970768317725</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -3671,19 +3671,19 @@
         <v>23971</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15026</v>
+        <v>15152</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>35619</v>
+        <v>36714</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03928090155411164</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02462262292866309</v>
+        <v>0.02482840559033532</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0583680607975119</v>
+        <v>0.06016109400039062</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>42</v>
@@ -3692,19 +3692,19 @@
         <v>44660</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>32847</v>
+        <v>33400</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>58924</v>
+        <v>60956</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03442461078188623</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02531855525759731</v>
+        <v>0.02574485810741993</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04541888008954304</v>
+        <v>0.04698541269663942</v>
       </c>
     </row>
     <row r="10">
@@ -3721,19 +3721,19 @@
         <v>5708</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13634</v>
+        <v>13464</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008307907822737257</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002771183982395453</v>
+        <v>0.002764915822658151</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01984316548940983</v>
+        <v>0.0195951573752106</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -3742,19 +3742,19 @@
         <v>2916</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8027</v>
+        <v>7681</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00477809747615422</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001516820538559643</v>
+        <v>0.001523630257906073</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01315418691378928</v>
+        <v>0.01258722828373525</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -3763,19 +3763,19 @@
         <v>8624</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3783</v>
+        <v>3892</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16346</v>
+        <v>16592</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006647524430422777</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002915742410008592</v>
+        <v>0.003000364897659519</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0125996346256924</v>
+        <v>0.01278927010888094</v>
       </c>
     </row>
     <row r="11">
@@ -3867,19 +3867,19 @@
         <v>641191</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>626943</v>
+        <v>627543</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>651682</v>
+        <v>652328</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9429863705729947</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9220312528392057</v>
+        <v>0.9229144008037516</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9584155103217833</v>
+        <v>0.9593655154167019</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>597</v>
@@ -3888,19 +3888,19 @@
         <v>635569</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>616267</v>
+        <v>617234</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>650074</v>
+        <v>650330</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8940970520016237</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8669444744779673</v>
+        <v>0.8683041687156082</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9145020783262782</v>
+        <v>0.914861905423754</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1210</v>
@@ -3909,19 +3909,19 @@
         <v>1276760</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1255470</v>
+        <v>1252089</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1295389</v>
+        <v>1296171</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9179987691576317</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9026907440555835</v>
+        <v>0.9002601062572337</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9313928211617228</v>
+        <v>0.9319553644210429</v>
       </c>
     </row>
     <row r="13">
@@ -3938,19 +3938,19 @@
         <v>30811</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21509</v>
+        <v>20426</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43873</v>
+        <v>42328</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04531359457073076</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03163347852865458</v>
+        <v>0.0300400048330205</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06452312958491538</v>
+        <v>0.06225094806203519</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -3959,19 +3959,19 @@
         <v>53825</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41814</v>
+        <v>40936</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69869</v>
+        <v>68821</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07571956124283397</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05882245583404205</v>
+        <v>0.05758795490136152</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09828985487806866</v>
+        <v>0.09681521958839692</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>81</v>
@@ -3980,19 +3980,19 @@
         <v>84637</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>67603</v>
+        <v>69022</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>102368</v>
+        <v>105222</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06085425249056195</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04860665848177453</v>
+        <v>0.0496274321578648</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0736031928901158</v>
+        <v>0.0756550068718896</v>
       </c>
     </row>
     <row r="14">
@@ -4009,19 +4009,19 @@
         <v>7956</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3097</v>
+        <v>3541</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16926</v>
+        <v>17287</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01170003485627453</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004554923316160179</v>
+        <v>0.005207453324146987</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02489264051037933</v>
+        <v>0.02542386766169455</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -4030,19 +4030,19 @@
         <v>21456</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13014</v>
+        <v>12955</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32914</v>
+        <v>33640</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03018338675554231</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01830734134062048</v>
+        <v>0.01822476441858262</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04630279203292424</v>
+        <v>0.04732302753611415</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -4051,19 +4051,19 @@
         <v>29411</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19468</v>
+        <v>19780</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>42504</v>
+        <v>42939</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02114697835180635</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0139976209317179</v>
+        <v>0.01422187525880882</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03056061418878473</v>
+        <v>0.03087355975664872</v>
       </c>
     </row>
     <row r="15">
@@ -4155,19 +4155,19 @@
         <v>549330</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>529988</v>
+        <v>531596</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>563461</v>
+        <v>563005</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8937767514283872</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8623063763460651</v>
+        <v>0.8649217263782926</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9167679888902914</v>
+        <v>0.9160262350463121</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>446</v>
@@ -4176,19 +4176,19 @@
         <v>513756</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>492013</v>
+        <v>490420</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>530850</v>
+        <v>532132</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8337498623289514</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7984650624355937</v>
+        <v>0.7958799654318182</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8614914098699146</v>
+        <v>0.8635712291841263</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>935</v>
@@ -4197,19 +4197,19 @@
         <v>1063086</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1033658</v>
+        <v>1035950</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1086198</v>
+        <v>1087829</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8637247195430191</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8398151321100054</v>
+        <v>0.8416777356582464</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8825022818844254</v>
+        <v>0.8838272823204949</v>
       </c>
     </row>
     <row r="17">
@@ -4226,19 +4226,19 @@
         <v>46705</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34567</v>
+        <v>34000</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61307</v>
+        <v>61900</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07599085513465467</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05624074382013276</v>
+        <v>0.05531826369636247</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09974811340502776</v>
+        <v>0.100712466264023</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>65</v>
@@ -4247,19 +4247,19 @@
         <v>71755</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57135</v>
+        <v>55933</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>90812</v>
+        <v>91532</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1164483955699713</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09272140119323856</v>
+        <v>0.09077032260179194</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1473746763411323</v>
+        <v>0.1485436294151173</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>107</v>
@@ -4268,19 +4268,19 @@
         <v>118461</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>97746</v>
+        <v>97715</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>142433</v>
+        <v>142218</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09624563284188611</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07941542502111239</v>
+        <v>0.0793901509619835</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.115722770038288</v>
+        <v>0.1155476467296498</v>
       </c>
     </row>
     <row r="18">
@@ -4297,19 +4297,19 @@
         <v>18581</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11326</v>
+        <v>11338</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30026</v>
+        <v>29899</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03023239343695814</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01842824738613182</v>
+        <v>0.0184477410879214</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04885285384368914</v>
+        <v>0.0486458467558349</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>28</v>
@@ -4318,19 +4318,19 @@
         <v>30688</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21000</v>
+        <v>20578</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>43466</v>
+        <v>44673</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04980174210107728</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03407992015534</v>
+        <v>0.03339463892895065</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0705386448792274</v>
+        <v>0.072497553590208</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>45</v>
@@ -4339,19 +4339,19 @@
         <v>49269</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>36087</v>
+        <v>35190</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>66594</v>
+        <v>65241</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04002964761509483</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02931990503123124</v>
+        <v>0.02859049448772301</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05410532267499936</v>
+        <v>0.05300662185546142</v>
       </c>
     </row>
     <row r="19">
@@ -4443,19 +4443,19 @@
         <v>340395</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>322071</v>
+        <v>321012</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>356774</v>
+        <v>355830</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7964104438826</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7535386747691833</v>
+        <v>0.7510595694293936</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8347314831225369</v>
+        <v>0.8325217329418482</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>258</v>
@@ -4464,19 +4464,19 @@
         <v>284663</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>262239</v>
+        <v>262885</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>305120</v>
+        <v>305651</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6356920191944541</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.585615736958392</v>
+        <v>0.5870599836080103</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6813767242083029</v>
+        <v>0.6825625045270168</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>568</v>
@@ -4485,19 +4485,19 @@
         <v>625058</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>597213</v>
+        <v>596990</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>652415</v>
+        <v>653732</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7141793131558772</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6823632942008295</v>
+        <v>0.6821095249687211</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7454361096859254</v>
+        <v>0.7469412904986986</v>
       </c>
     </row>
     <row r="21">
@@ -4514,19 +4514,19 @@
         <v>61024</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>47063</v>
+        <v>47238</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>77292</v>
+        <v>77121</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1427756799269337</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1101120847490833</v>
+        <v>0.1105220331264949</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1808381664504858</v>
+        <v>0.1804364886429349</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>110</v>
@@ -4535,19 +4535,19 @@
         <v>120961</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>102006</v>
+        <v>100272</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>142893</v>
+        <v>140671</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.270123844388181</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2277926486690738</v>
+        <v>0.2239203368233595</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3190991973219547</v>
+        <v>0.3141372833723518</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>167</v>
@@ -4556,19 +4556,19 @@
         <v>181985</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>157599</v>
+        <v>155778</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>210582</v>
+        <v>208054</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2079330107055335</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1800700647220277</v>
+        <v>0.1779887107134875</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2406071185349795</v>
+        <v>0.2377180974394357</v>
       </c>
     </row>
     <row r="22">
@@ -4585,19 +4585,19 @@
         <v>25993</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17629</v>
+        <v>17522</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38353</v>
+        <v>38251</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06081387619046638</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04124560691380375</v>
+        <v>0.0409965471902238</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08973391775597725</v>
+        <v>0.08949409737405024</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -4606,19 +4606,19 @@
         <v>42176</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30137</v>
+        <v>29571</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57409</v>
+        <v>55867</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09418413641736498</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06730033562022841</v>
+        <v>0.06603600427506147</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1282032530841686</v>
+        <v>0.1247582229570406</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>62</v>
@@ -4627,19 +4627,19 @@
         <v>68168</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>52137</v>
+        <v>52771</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>85930</v>
+        <v>85516</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07788767613858924</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05957062437605443</v>
+        <v>0.06029518630737664</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09818138461292829</v>
+        <v>0.09770853582881799</v>
       </c>
     </row>
     <row r="23">
@@ -4731,19 +4731,19 @@
         <v>180944</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>162740</v>
+        <v>161997</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>200285</v>
+        <v>197737</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5840945548865787</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5253292807798802</v>
+        <v>0.5229312211260924</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6465266912058093</v>
+        <v>0.638300383289364</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>138</v>
@@ -4752,19 +4752,19 @@
         <v>144887</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>125374</v>
+        <v>127008</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>163801</v>
+        <v>165168</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4092901795958303</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3541668863062146</v>
+        <v>0.3587846473996466</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4627208934058642</v>
+        <v>0.466580191303846</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>305</v>
@@ -4773,19 +4773,19 @@
         <v>325831</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>300183</v>
+        <v>298969</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>356150</v>
+        <v>352649</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4908711281584507</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4522320326788362</v>
+        <v>0.450402718044703</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5365465024921836</v>
+        <v>0.531271589156355</v>
       </c>
     </row>
     <row r="25">
@@ -4802,19 +4802,19 @@
         <v>88169</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>68832</v>
+        <v>72363</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>104730</v>
+        <v>105260</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2846129901479757</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2221909407745732</v>
+        <v>0.2335897315775908</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3380726993335437</v>
+        <v>0.339783869335931</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>132</v>
@@ -4823,19 +4823,19 @@
         <v>133396</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>116220</v>
+        <v>114458</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>151256</v>
+        <v>150829</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3768293824409409</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.328308384611553</v>
+        <v>0.3233301422888156</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4272811721340853</v>
+        <v>0.4260768380649732</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>210</v>
@@ -4844,19 +4844,19 @@
         <v>221565</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>197965</v>
+        <v>194558</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>248565</v>
+        <v>247322</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3337921258289722</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2982384354757877</v>
+        <v>0.2931055625582499</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3744679918815544</v>
+        <v>0.3725946196985688</v>
       </c>
     </row>
     <row r="26">
@@ -4873,19 +4873,19 @@
         <v>40673</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>29757</v>
+        <v>28047</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>56366</v>
+        <v>54231</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1312924549654456</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09605694524009994</v>
+        <v>0.09053551363637548</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1819511350960895</v>
+        <v>0.1750599419203593</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>74</v>
@@ -4894,19 +4894,19 @@
         <v>75713</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>60963</v>
+        <v>60567</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>91537</v>
+        <v>92960</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2138804379632288</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1722128169503599</v>
+        <v>0.1710944316234051</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2585829554629543</v>
+        <v>0.2626013393343934</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>111</v>
@@ -4915,19 +4915,19 @@
         <v>116385</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>94729</v>
+        <v>98302</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>136031</v>
+        <v>138171</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1753367460125771</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1427110766986976</v>
+        <v>0.148093631586652</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2049333744483135</v>
+        <v>0.2081565312199788</v>
       </c>
     </row>
     <row r="27">
@@ -5019,19 +5019,19 @@
         <v>72230</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>59324</v>
+        <v>57949</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>90141</v>
+        <v>88035</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2890921168124641</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2374387798369564</v>
+        <v>0.2319331574334646</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3607797255446133</v>
+        <v>0.3523502021758964</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>58</v>
@@ -5040,19 +5040,19 @@
         <v>64442</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>50873</v>
+        <v>49338</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>80137</v>
+        <v>80857</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1661328847304911</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1311522754091744</v>
+        <v>0.1271947852259454</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2065951619276083</v>
+        <v>0.2084530283207225</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>123</v>
@@ -5061,19 +5061,19 @@
         <v>136672</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>116694</v>
+        <v>116797</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>161512</v>
+        <v>160656</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2143050953900864</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1829790562969385</v>
+        <v>0.1831411151482392</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2532551262940866</v>
+        <v>0.2519126921444068</v>
       </c>
     </row>
     <row r="29">
@@ -5090,19 +5090,19 @@
         <v>103888</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>86619</v>
+        <v>87832</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>119328</v>
+        <v>119796</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.415800792283785</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3466814360323023</v>
+        <v>0.3515367024846504</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4775985691105994</v>
+        <v>0.4794683583936742</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>138</v>
@@ -5111,19 +5111,19 @@
         <v>153985</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>135533</v>
+        <v>134416</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>174386</v>
+        <v>175335</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3969798257448285</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3494095833605883</v>
+        <v>0.3465304124949738</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4495746459729921</v>
+        <v>0.4520206674659096</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>232</v>
@@ -5132,19 +5132,19 @@
         <v>257874</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>232324</v>
+        <v>230675</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>282622</v>
+        <v>282451</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4043533881002552</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3642904340776308</v>
+        <v>0.3617048527979956</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4431601517122997</v>
+        <v>0.4428914534575729</v>
       </c>
     </row>
     <row r="30">
@@ -5161,19 +5161,19 @@
         <v>73733</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>58891</v>
+        <v>58875</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>90154</v>
+        <v>92050</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2951070909037509</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2357037096172317</v>
+        <v>0.2356421680762656</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3608295250687813</v>
+        <v>0.3684192271158593</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>153</v>
@@ -5182,19 +5182,19 @@
         <v>169465</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>149226</v>
+        <v>150493</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>189089</v>
+        <v>191265</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4368872895246804</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3847096994580241</v>
+        <v>0.3879769680474503</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4874776694921641</v>
+        <v>0.4930885867801929</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>216</v>
@@ -5203,19 +5203,19 @@
         <v>243198</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>218343</v>
+        <v>217253</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>265970</v>
+        <v>268886</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3813415165096585</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3423678267777172</v>
+        <v>0.340658738235227</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4170483469590813</v>
+        <v>0.421621724762413</v>
       </c>
     </row>
     <row r="31">
@@ -5307,19 +5307,19 @@
         <v>2890095</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2839362</v>
+        <v>2844867</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2930323</v>
+        <v>2934924</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8443513784317306</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8295297185078827</v>
+        <v>0.8311378268356843</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.856104136195989</v>
+        <v>0.8574484261680407</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2450</v>
@@ -5328,19 +5328,19 @@
         <v>2641507</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2584398</v>
+        <v>2587145</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2691586</v>
+        <v>2693581</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7425758628806821</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7265213026893117</v>
+        <v>0.7272935880794191</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7566538815760255</v>
+        <v>0.7572148888348926</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5172</v>
@@ -5349,19 +5349,19 @@
         <v>5531602</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5460491</v>
+        <v>5458446</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5600391</v>
+        <v>5600398</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7924840499506303</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7822963030503671</v>
+        <v>0.7820033334956383</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8023390240246184</v>
+        <v>0.8023400758083193</v>
       </c>
     </row>
     <row r="33">
@@ -5378,19 +5378,19 @@
         <v>359252</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>326360</v>
+        <v>325830</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>401098</v>
+        <v>399047</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1049567856783047</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0953473225713509</v>
+        <v>0.09519229188474181</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1171821397780042</v>
+        <v>0.1165830670688699</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>527</v>
@@ -5399,19 +5399,19 @@
         <v>568396</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>525935</v>
+        <v>521916</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>614640</v>
+        <v>611462</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1597863540117364</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.147850051398077</v>
+        <v>0.1467201589052212</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1727864724394116</v>
+        <v>0.1718932588259378</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>857</v>
@@ -5420,19 +5420,19 @@
         <v>927648</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>867563</v>
+        <v>871267</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>986821</v>
+        <v>987594</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1328992944028183</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1242912022696451</v>
+        <v>0.124821860789994</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1413767168770523</v>
+        <v>0.1414875067593525</v>
       </c>
     </row>
     <row r="34">
@@ -5449,19 +5449,19 @@
         <v>173511</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>148052</v>
+        <v>147218</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>202711</v>
+        <v>204417</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05069183588996463</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04325396004952008</v>
+        <v>0.04301032426725687</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05922276391902105</v>
+        <v>0.05972123019826233</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>320</v>
@@ -5470,19 +5470,19 @@
         <v>347319</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>313163</v>
+        <v>312941</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>385611</v>
+        <v>388070</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.09763778310758152</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08803581026373984</v>
+        <v>0.08797344415561011</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.108402250726342</v>
+        <v>0.1090935101832747</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>474</v>
@@ -5491,19 +5491,19 @@
         <v>520830</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>478425</v>
+        <v>478854</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>569106</v>
+        <v>567199</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07461665564655146</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06854146455977012</v>
+        <v>0.06860291830463881</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08153287012460592</v>
+        <v>0.08125967647363407</v>
       </c>
     </row>
     <row r="35">
@@ -5838,7 +5838,7 @@
         <v>416061</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>409537</v>
+        <v>409606</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>418490</v>
@@ -5847,10 +5847,10 @@
         <v>0.9918899787323422</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9763367972150043</v>
+        <v>0.9765005311256395</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9976791903365512</v>
+        <v>0.9976802072566905</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>390</v>
@@ -5859,19 +5859,19 @@
         <v>381755</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>372031</v>
+        <v>373464</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>388015</v>
+        <v>387973</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9646234337590158</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.940054458729762</v>
+        <v>0.943675115138019</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9804433942482007</v>
+        <v>0.9803369028113804</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>780</v>
@@ -5880,19 +5880,19 @@
         <v>797816</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>788284</v>
+        <v>787723</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>804873</v>
+        <v>804699</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9786531861600614</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9669612541811556</v>
+        <v>0.9662725684927601</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9873099404994696</v>
+        <v>0.9870964756578827</v>
       </c>
     </row>
     <row r="5">
@@ -5912,16 +5912,16 @@
         <v>973</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9926</v>
+        <v>9857</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008110021267657844</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002320809663448853</v>
+        <v>0.002319792743309527</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02366320278499571</v>
+        <v>0.02349946887436048</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -5930,19 +5930,19 @@
         <v>12975</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7100</v>
+        <v>7229</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22755</v>
+        <v>21638</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03278470495504978</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01794161822479356</v>
+        <v>0.01826677785954889</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05749665083552321</v>
+        <v>0.05467498481480775</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -5951,19 +5951,19 @@
         <v>16377</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9433</v>
+        <v>9785</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25802</v>
+        <v>26600</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02008857117473842</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0115707407855161</v>
+        <v>0.0120028665789397</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03165085987323165</v>
+        <v>0.032628872010635</v>
       </c>
     </row>
     <row r="6">
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5138</v>
+        <v>5159</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002591861285934384</v>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01298165121851497</v>
+        <v>0.01303462273410346</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5133</v>
+        <v>5157</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001258242665200165</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.006297067914938682</v>
+        <v>0.006325312056710481</v>
       </c>
     </row>
     <row r="7">
@@ -6118,19 +6118,19 @@
         <v>574264</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>563651</v>
+        <v>564140</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>580860</v>
+        <v>580677</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9725119382640185</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9545377214851556</v>
+        <v>0.9553658398486157</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9836819386297835</v>
+        <v>0.9833712759677538</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>555</v>
@@ -6139,19 +6139,19 @@
         <v>538965</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>528284</v>
+        <v>528899</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>548452</v>
+        <v>548143</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9563848656699999</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9374309789981957</v>
+        <v>0.9385222729456664</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9732189532907808</v>
+        <v>0.97267091220949</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1107</v>
@@ -6160,19 +6160,19 @@
         <v>1113229</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1096540</v>
+        <v>1097526</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1123465</v>
+        <v>1124266</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9646367256851961</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9501753753770857</v>
+        <v>0.9510290699054141</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9735061776386205</v>
+        <v>0.9742005356166492</v>
       </c>
     </row>
     <row r="9">
@@ -6189,19 +6189,19 @@
         <v>14245</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7878</v>
+        <v>8109</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24554</v>
+        <v>23470</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02412376316737588</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01334195920553084</v>
+        <v>0.01373220916152794</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04158121615891539</v>
+        <v>0.03974650764949085</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -6210,19 +6210,19 @@
         <v>14983</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8388</v>
+        <v>8247</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23909</v>
+        <v>23069</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02658777055057714</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01488463704175892</v>
+        <v>0.014633702495698</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04242697639775434</v>
+        <v>0.04093578585341791</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>28</v>
@@ -6231,19 +6231,19 @@
         <v>29228</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20111</v>
+        <v>18546</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>43174</v>
+        <v>40697</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02532699343904309</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01742640418722713</v>
+        <v>0.01607062706832015</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03741121515645379</v>
+        <v>0.0352650511375593</v>
       </c>
     </row>
     <row r="10">
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6083</v>
+        <v>6018</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003364298568605669</v>
@@ -6272,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01030077130683286</v>
+        <v>0.01019199649184383</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -6281,19 +6281,19 @@
         <v>9596</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4277</v>
+        <v>4590</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17662</v>
+        <v>17126</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01702736377942294</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007588695727265421</v>
+        <v>0.008145686117342553</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03134058111279563</v>
+        <v>0.03039007076948955</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -6302,19 +6302,19 @@
         <v>11582</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5937</v>
+        <v>6414</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19976</v>
+        <v>20510</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01003628087576082</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005144239157701465</v>
+        <v>0.005557775714654269</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01730975548870196</v>
+        <v>0.01777256487649314</v>
       </c>
     </row>
     <row r="11">
@@ -6406,19 +6406,19 @@
         <v>633017</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>620498</v>
+        <v>620478</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>644383</v>
+        <v>643978</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.946076045663961</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9273656316891886</v>
+        <v>0.927336728703659</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9630631317272011</v>
+        <v>0.9624581688966762</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>619</v>
@@ -6427,19 +6427,19 @@
         <v>613376</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>598257</v>
+        <v>599231</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>624579</v>
+        <v>625503</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9274104083400433</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9045498531018964</v>
+        <v>0.9060229430841694</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9443483505311829</v>
+        <v>0.945745086373846</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1223</v>
@@ -6448,19 +6448,19 @@
         <v>1246393</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1227369</v>
+        <v>1226043</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1262966</v>
+        <v>1263932</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9367973125257383</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9224991019932997</v>
+        <v>0.9215023050215049</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9492540978255499</v>
+        <v>0.9499799995932806</v>
       </c>
     </row>
     <row r="13">
@@ -6477,19 +6477,19 @@
         <v>29036</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18648</v>
+        <v>19206</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40472</v>
+        <v>40381</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04339529727716288</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02787067526623476</v>
+        <v>0.02870404739147836</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06048802527115587</v>
+        <v>0.06035128099095661</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -6498,19 +6498,19 @@
         <v>40916</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30020</v>
+        <v>30254</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54989</v>
+        <v>54774</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06186395890690367</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04539027434143065</v>
+        <v>0.04574389903456145</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08314237285157322</v>
+        <v>0.08281663388451509</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -6519,19 +6519,19 @@
         <v>69952</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54094</v>
+        <v>53533</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88020</v>
+        <v>89102</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05257611332478395</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04065730019960059</v>
+        <v>0.04023567943333789</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06615642001150598</v>
+        <v>0.06696996720391021</v>
       </c>
     </row>
     <row r="14">
@@ -6548,19 +6548,19 @@
         <v>7045</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3004</v>
+        <v>2915</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14332</v>
+        <v>13352</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01052865705887617</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004489814399941294</v>
+        <v>0.004357246060113806</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02141993525815867</v>
+        <v>0.01995516855639295</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -6569,19 +6569,19 @@
         <v>7094</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2846</v>
+        <v>2807</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14136</v>
+        <v>13634</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01072563275305299</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004303569101989164</v>
+        <v>0.004244816943066722</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02137404560027331</v>
+        <v>0.0206146438272264</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -6590,19 +6590,19 @@
         <v>14138</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8063</v>
+        <v>7833</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>23244</v>
+        <v>22977</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01062657414947778</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00606004793369812</v>
+        <v>0.005887060631217312</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01747034796575029</v>
+        <v>0.01726953207819018</v>
       </c>
     </row>
     <row r="15">
@@ -6694,19 +6694,19 @@
         <v>568260</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>549544</v>
+        <v>548755</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>585674</v>
+        <v>582978</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8795938479742292</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8506236012575645</v>
+        <v>0.8494026647634318</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9065494756028765</v>
+        <v>0.9023762323826175</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>513</v>
@@ -6715,19 +6715,19 @@
         <v>553806</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>533796</v>
+        <v>534325</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>570109</v>
+        <v>572056</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.853220875186003</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8223920726892783</v>
+        <v>0.8232074693773811</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8783376618689673</v>
+        <v>0.8813373785292196</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1026</v>
@@ -6736,19 +6736,19 @@
         <v>1122066</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1096122</v>
+        <v>1093290</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1148649</v>
+        <v>1146227</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8663765250786856</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8463444406996073</v>
+        <v>0.8441580314817088</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8869020523801948</v>
+        <v>0.8850320947906994</v>
       </c>
     </row>
     <row r="17">
@@ -6765,19 +6765,19 @@
         <v>45242</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31545</v>
+        <v>33725</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>58600</v>
+        <v>60339</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07002854352253852</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04882828215330199</v>
+        <v>0.05220229985623202</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09070520457759894</v>
+        <v>0.09339758701032204</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>52</v>
@@ -6786,19 +6786,19 @@
         <v>55049</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41530</v>
+        <v>42531</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>72443</v>
+        <v>71131</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08481079263571513</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06398360931484723</v>
+        <v>0.06552587393161621</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1116091724973661</v>
+        <v>0.1095880928284153</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>92</v>
@@ -6807,19 +6807,19 @@
         <v>100291</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>81171</v>
+        <v>83094</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>121096</v>
+        <v>121442</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07743695216953199</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06267419814311159</v>
+        <v>0.06415919433187918</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09350177399933222</v>
+        <v>0.0937684068043108</v>
       </c>
     </row>
     <row r="18">
@@ -6836,19 +6836,19 @@
         <v>32546</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21606</v>
+        <v>22958</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>46410</v>
+        <v>47142</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05037760850323222</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0334437254421189</v>
+        <v>0.03553608135385972</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07183609108161744</v>
+        <v>0.07297043340942717</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>37</v>
@@ -6857,19 +6857,19 @@
         <v>40222</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>28430</v>
+        <v>28970</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>54999</v>
+        <v>54537</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06196833217828193</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04380114388350056</v>
+        <v>0.04463230639224578</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08473391217009542</v>
+        <v>0.08402252911811224</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>66</v>
@@ -6878,19 +6878,19 @@
         <v>72769</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>56926</v>
+        <v>57513</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>93202</v>
+        <v>92775</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05618652275178242</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04395435527825708</v>
+        <v>0.04440754030651205</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07196388930811214</v>
+        <v>0.07163413997232215</v>
       </c>
     </row>
     <row r="19">
@@ -6982,19 +6982,19 @@
         <v>381067</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>359727</v>
+        <v>361415</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>398492</v>
+        <v>401020</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7973479254839044</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7526953247352013</v>
+        <v>0.756227241815323</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8338093214154915</v>
+        <v>0.839098822122614</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>293</v>
@@ -7003,19 +7003,19 @@
         <v>338132</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>316957</v>
+        <v>313731</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>361165</v>
+        <v>359110</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6805523589426167</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6379347223250855</v>
+        <v>0.6314409937832483</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7269107684205808</v>
+        <v>0.7227747373547988</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>634</v>
@@ -7024,19 +7024,19 @@
         <v>719199</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>686621</v>
+        <v>687409</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>746584</v>
+        <v>747591</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.73781599568851</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.704394565926671</v>
+        <v>0.7052037601547565</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7659106313144642</v>
+        <v>0.7669431564375839</v>
       </c>
     </row>
     <row r="21">
@@ -7053,19 +7053,19 @@
         <v>76356</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>59966</v>
+        <v>59606</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>95658</v>
+        <v>95051</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1597681764308546</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1254724182514335</v>
+        <v>0.1247195628946644</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2001557476966077</v>
+        <v>0.1988846029365568</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>88</v>
@@ -7074,19 +7074,19 @@
         <v>98812</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>81108</v>
+        <v>80798</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>119204</v>
+        <v>118852</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1988764795144005</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1632455842938084</v>
+        <v>0.1626203289687454</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2399192371795672</v>
+        <v>0.2392121004899463</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>154</v>
@@ -7095,19 +7095,19 @@
         <v>175168</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>151185</v>
+        <v>150582</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>201432</v>
+        <v>200787</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1797020902131354</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1550981579363834</v>
+        <v>0.1544795610083775</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2066465105488604</v>
+        <v>0.2059844074072936</v>
       </c>
     </row>
     <row r="22">
@@ -7124,19 +7124,19 @@
         <v>20495</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11703</v>
+        <v>12688</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31731</v>
+        <v>31557</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04288389808524094</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02448722044021761</v>
+        <v>0.02654945720472103</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06639476955167878</v>
+        <v>0.06602929739027123</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -7145,19 +7145,19 @@
         <v>59906</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>44958</v>
+        <v>46361</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76766</v>
+        <v>78103</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1205711615429829</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09048653759645246</v>
+        <v>0.09331006545187701</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1545064495103169</v>
+        <v>0.1571969943097045</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>69</v>
@@ -7166,19 +7166,19 @@
         <v>80401</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>62903</v>
+        <v>63067</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>99187</v>
+        <v>104073</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08248191409835473</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0645308195525698</v>
+        <v>0.06469923354175358</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1017548357103532</v>
+        <v>0.1067667908532033</v>
       </c>
     </row>
     <row r="23">
@@ -7270,19 +7270,19 @@
         <v>220265</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>202469</v>
+        <v>202287</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>237159</v>
+        <v>236077</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6588265548756287</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6055953790281292</v>
+        <v>0.6050505861317388</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7093572907569291</v>
+        <v>0.7061184537206612</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>183</v>
@@ -7291,19 +7291,19 @@
         <v>196906</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>177248</v>
+        <v>177616</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>216102</v>
+        <v>214826</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5212437991768349</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4692061548384275</v>
+        <v>0.4701802558011193</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5720593365525271</v>
+        <v>0.5686810325419202</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>396</v>
@@ -7312,19 +7312,19 @@
         <v>417172</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>388688</v>
+        <v>392361</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>443268</v>
+        <v>442063</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5858394447886972</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5458402327479782</v>
+        <v>0.5509972405464691</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6224875826140835</v>
+        <v>0.6207950016115874</v>
       </c>
     </row>
     <row r="25">
@@ -7341,19 +7341,19 @@
         <v>75307</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>62126</v>
+        <v>61901</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>91141</v>
+        <v>92276</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2252479764311739</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1858211855326523</v>
+        <v>0.1851505863656412</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2726077414388553</v>
+        <v>0.2760037120804389</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>116</v>
@@ -7362,19 +7362,19 @@
         <v>123080</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>105127</v>
+        <v>105392</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>141063</v>
+        <v>141734</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.325813395696378</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2782879355913361</v>
+        <v>0.2789909171257877</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3734168477542296</v>
+        <v>0.3751937236371216</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>190</v>
@@ -7383,19 +7383,19 @@
         <v>198387</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>174564</v>
+        <v>174654</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>223345</v>
+        <v>224333</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2785975353171515</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2451429612356963</v>
+        <v>0.2452683490713673</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3136467482573409</v>
+        <v>0.3150340238062864</v>
       </c>
     </row>
     <row r="26">
@@ -7412,19 +7412,19 @@
         <v>38757</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28081</v>
+        <v>28165</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>52353</v>
+        <v>51170</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1159254686931974</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08399236933517856</v>
+        <v>0.08424298673457162</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1565896382301074</v>
+        <v>0.1530532102121841</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>55</v>
@@ -7433,19 +7433,19 @@
         <v>57776</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44443</v>
+        <v>44179</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>71977</v>
+        <v>71463</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1529428051267871</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1176485689044053</v>
+        <v>0.1169495298326235</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1905360038706105</v>
+        <v>0.189174457896408</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>93</v>
@@ -7454,19 +7454,19 @@
         <v>96533</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>79567</v>
+        <v>80446</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>115359</v>
+        <v>116136</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1355630198941513</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1117367226414666</v>
+        <v>0.1129719383441489</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1620001749321992</v>
+        <v>0.1630913512923014</v>
       </c>
     </row>
     <row r="27">
@@ -7558,19 +7558,19 @@
         <v>109435</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>95419</v>
+        <v>94847</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>125442</v>
+        <v>125219</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4258193925425432</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.371282641857343</v>
+        <v>0.3690566491498827</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4881062124666378</v>
+        <v>0.4872371471962251</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>85</v>
@@ -7579,19 +7579,19 @@
         <v>112931</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>94950</v>
+        <v>92850</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>134086</v>
+        <v>133785</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2822074355897051</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2372748555664304</v>
+        <v>0.2320258648304406</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3350746638109602</v>
+        <v>0.334321836528465</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>215</v>
@@ -7600,19 +7600,19 @@
         <v>222365</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>198899</v>
+        <v>195331</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>249643</v>
+        <v>246563</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3383696985123359</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3026611006907166</v>
+        <v>0.2972316764658549</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3798773953705949</v>
+        <v>0.3751902456028304</v>
       </c>
     </row>
     <row r="29">
@@ -7629,19 +7629,19 @@
         <v>94928</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>81880</v>
+        <v>81512</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>109897</v>
+        <v>110446</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3693720600186099</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3186028026763106</v>
+        <v>0.3171691246673877</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4276165787020398</v>
+        <v>0.4297537454330905</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>112</v>
@@ -7650,19 +7650,19 @@
         <v>147329</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>125438</v>
+        <v>127308</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>168837</v>
+        <v>172563</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3681669853637525</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3134634237998262</v>
+        <v>0.3181354730781835</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4219133846132671</v>
+        <v>0.4312245263684053</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>222</v>
@@ -7671,19 +7671,19 @@
         <v>242257</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>218752</v>
+        <v>220514</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>270007</v>
+        <v>270991</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3686382533629047</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3328710993052227</v>
+        <v>0.3355518816764524</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4108652805620401</v>
+        <v>0.412363031257266</v>
       </c>
     </row>
     <row r="30">
@@ -7700,19 +7700,19 @@
         <v>52635</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>40618</v>
+        <v>41550</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>64938</v>
+        <v>65927</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2048085474388469</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1580497280402402</v>
+        <v>0.161673967473033</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2526791453902602</v>
+        <v>0.2565259441756906</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>104</v>
@@ -7721,19 +7721,19 @@
         <v>139909</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>118991</v>
+        <v>119218</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>161850</v>
+        <v>162492</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3496255790465423</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2973529248838659</v>
+        <v>0.2979193837647539</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4044530342104209</v>
+        <v>0.4060584953852224</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>166</v>
@@ -7742,19 +7742,19 @@
         <v>192545</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>169478</v>
+        <v>168592</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>218202</v>
+        <v>218555</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2929920481247594</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2578919496755483</v>
+        <v>0.2565436665245841</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3320348050115338</v>
+        <v>0.3325720409263379</v>
       </c>
     </row>
     <row r="31">
@@ -7846,19 +7846,19 @@
         <v>2902369</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2860420</v>
+        <v>2862299</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2939974</v>
+        <v>2945289</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8550589079546544</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8427003764702868</v>
+        <v>0.8432539272868561</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8661376227914527</v>
+        <v>0.867703321059848</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2638</v>
@@ -7867,19 +7867,19 @@
         <v>2735870</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2680313</v>
+        <v>2680741</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2785981</v>
+        <v>2787744</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7718543966495656</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7561804124383764</v>
+        <v>0.7563011812251251</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.78599191134194</v>
+        <v>0.7864892547902586</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5381</v>
@@ -7888,19 +7888,19 @@
         <v>5638240</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5561992</v>
+        <v>5574156</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5707602</v>
+        <v>5699500</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8125561754888548</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8015677803613322</v>
+        <v>0.8033206914231311</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8225523288290474</v>
+        <v>0.8213847627301901</v>
       </c>
     </row>
     <row r="33">
@@ -7917,19 +7917,19 @@
         <v>338515</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>305515</v>
+        <v>301612</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>372894</v>
+        <v>369463</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09972908200922199</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0900068734206806</v>
+        <v>0.08885718730308217</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1098571376348158</v>
+        <v>0.1088463657783749</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>435</v>
@@ -7938,19 +7938,19 @@
         <v>493143</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>451000</v>
+        <v>450519</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>535709</v>
+        <v>536279</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1391275097624734</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1272378499372078</v>
+        <v>0.1271021192325514</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.15113644720227</v>
+        <v>0.1512971986689866</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>768</v>
@@ -7959,19 +7959,19 @@
         <v>831659</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>772408</v>
+        <v>782435</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>889318</v>
+        <v>890430</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1198546834712567</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1113157445237743</v>
+        <v>0.1127607649094657</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1281642044705454</v>
+        <v>0.1283245410275888</v>
       </c>
     </row>
     <row r="34">
@@ -7988,19 +7988,19 @@
         <v>153465</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>132013</v>
+        <v>130121</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>177799</v>
+        <v>178451</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04521201003612353</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03889201442796119</v>
+        <v>0.03833458155302107</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05238076784380474</v>
+        <v>0.05257305512177721</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>265</v>
@@ -8009,19 +8009,19 @@
         <v>315528</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>278627</v>
+        <v>279887</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>353167</v>
+        <v>353841</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08901809358796106</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07860739277128737</v>
+        <v>0.07896272088723456</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09963672340188601</v>
+        <v>0.09982690878313934</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>420</v>
@@ -8030,19 +8030,19 @@
         <v>468994</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>426209</v>
+        <v>428489</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>515048</v>
+        <v>511578</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06758914103988845</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0614232667102149</v>
+        <v>0.06175176471516139</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07422626316258248</v>
+        <v>0.07372612211163232</v>
       </c>
     </row>
     <row r="35">
@@ -8377,16 +8377,16 @@
         <v>402531</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>390132</v>
+        <v>388243</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>407793</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9870971583882279</v>
+        <v>0.9870971583882278</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9566921828971245</v>
+        <v>0.9520582054759991</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -8398,19 +8398,19 @@
         <v>353017</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>340173</v>
+        <v>341762</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>358830</v>
+        <v>359012</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9738064221499085</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9383777376665782</v>
+        <v>0.9427612608836027</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9898426359899399</v>
+        <v>0.990344903589704</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>372</v>
@@ -8419,19 +8419,19 @@
         <v>755548</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>740158</v>
+        <v>741867</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>763703</v>
+        <v>764136</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9808424270711834</v>
+        <v>0.9808424270711831</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9608631987947043</v>
+        <v>0.9630817762024314</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9914293701580954</v>
+        <v>0.9919909642878636</v>
       </c>
     </row>
     <row r="5">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17661</v>
+        <v>19550</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0129028416117723</v>
@@ -8460,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04330781710287507</v>
+        <v>0.04794179452400157</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -8469,19 +8469,19 @@
         <v>7463</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2187</v>
+        <v>2164</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17646</v>
+        <v>17376</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02058775013755438</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006032003328399855</v>
+        <v>0.005969184363015209</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04867785127135634</v>
+        <v>0.0479319366674654</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -8490,19 +8490,19 @@
         <v>12725</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5177</v>
+        <v>5137</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28697</v>
+        <v>26359</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.01651942365530483</v>
+        <v>0.01651942365530482</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006720251811894999</v>
+        <v>0.006669139756068522</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03725457781908536</v>
+        <v>0.03421931663469356</v>
       </c>
     </row>
     <row r="6">
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12398</v>
+        <v>12285</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.00560582771253704</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03420054165128938</v>
+        <v>0.03388900566679612</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -8556,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13362</v>
+        <v>10450</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002638149273512037</v>
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01734608376044152</v>
+        <v>0.01356651260299147</v>
       </c>
     </row>
     <row r="7">
@@ -8657,19 +8657,19 @@
         <v>460946</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>448917</v>
+        <v>450118</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>468379</v>
+        <v>468657</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9665657891360201</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9413420454493011</v>
+        <v>0.9438602330468785</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9821531832627712</v>
+        <v>0.982735316091737</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>453</v>
@@ -8678,19 +8678,19 @@
         <v>494396</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>487348</v>
+        <v>488151</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498349</v>
+        <v>498107</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9853760487511944</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9713288669151042</v>
+        <v>0.9729302530569872</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9932558393700314</v>
+        <v>0.9927722676186511</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>744</v>
@@ -8699,19 +8699,19 @@
         <v>955341</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>942481</v>
+        <v>942805</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>964955</v>
+        <v>964482</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9762096681769089</v>
+        <v>0.976209668176909</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9630687104917228</v>
+        <v>0.9633993330293253</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9860338435370226</v>
+        <v>0.9855499421008743</v>
       </c>
     </row>
     <row r="9">
@@ -8728,19 +8728,19 @@
         <v>10780</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4231</v>
+        <v>4625</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22347</v>
+        <v>22243</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02260409289161522</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008871992459078073</v>
+        <v>0.009697405103185095</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0468588584786662</v>
+        <v>0.04664089792346564</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -8749,19 +8749,19 @@
         <v>6390</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2821</v>
+        <v>2780</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13438</v>
+        <v>12126</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01273672109919812</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.00562187461557725</v>
+        <v>0.005540800626744592</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02678289312525543</v>
+        <v>0.02416800297704288</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -8770,19 +8770,19 @@
         <v>17170</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9947</v>
+        <v>9339</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>30327</v>
+        <v>29189</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01754516537204056</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01016432202439922</v>
+        <v>0.009542653434416829</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0309893047768661</v>
+        <v>0.02982684333426678</v>
       </c>
     </row>
     <row r="10">
@@ -8799,19 +8799,19 @@
         <v>5165</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1302</v>
+        <v>1287</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12239</v>
+        <v>12198</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01083011797236472</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002730278870269638</v>
+        <v>0.002698109747996536</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02566471117467552</v>
+        <v>0.02557847127614383</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -8823,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4807</v>
+        <v>4751</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001887230149607334</v>
@@ -8832,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009581599795659345</v>
+        <v>0.009470140447031527</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -8841,19 +8841,19 @@
         <v>6112</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2252</v>
+        <v>2229</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14042</v>
+        <v>13777</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.006245166451050429</v>
+        <v>0.00624516645105043</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002301311704460658</v>
+        <v>0.002278155983342553</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01434829698709108</v>
+        <v>0.0140778394507477</v>
       </c>
     </row>
     <row r="11">
@@ -8945,19 +8945,19 @@
         <v>590447</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>578089</v>
+        <v>576784</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>600536</v>
+        <v>599438</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9510504024396726</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9311452150042776</v>
+        <v>0.9290430675849606</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9673008924735099</v>
+        <v>0.9655327222848283</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>786</v>
@@ -8966,19 +8966,19 @@
         <v>577634</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>566590</v>
+        <v>566259</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>587377</v>
+        <v>587872</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9278426324359361</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9101031143817094</v>
+        <v>0.9095708770504358</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9434931957544614</v>
+        <v>0.9442882428991377</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1305</v>
@@ -8987,19 +8987,19 @@
         <v>1168081</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1151001</v>
+        <v>1151813</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1181856</v>
+        <v>1182795</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.9394304699832813</v>
+        <v>0.9394304699832811</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9256932784473152</v>
+        <v>0.9263466872553667</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9505089722626654</v>
+        <v>0.9512639513060737</v>
       </c>
     </row>
     <row r="13">
@@ -9016,19 +9016,19 @@
         <v>25443</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16707</v>
+        <v>16896</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37713</v>
+        <v>37170</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04098185209141701</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02691048202922317</v>
+        <v>0.027215154197091</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06074526238696328</v>
+        <v>0.05987155361530849</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -9037,19 +9037,19 @@
         <v>34544</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26269</v>
+        <v>25769</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44718</v>
+        <v>44386</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05548798909967019</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04219476749781712</v>
+        <v>0.04139211885146372</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07182922575260471</v>
+        <v>0.07129692033092488</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -9058,19 +9058,19 @@
         <v>59987</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47230</v>
+        <v>47728</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76687</v>
+        <v>76545</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04824495114022365</v>
+        <v>0.04824495114022366</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03798488624691897</v>
+        <v>0.038385121734511</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06167571042875434</v>
+        <v>0.06156143143467549</v>
       </c>
     </row>
     <row r="14">
@@ -9087,19 +9087,19 @@
         <v>4947</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1143</v>
+        <v>1310</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11591</v>
+        <v>11619</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007967745468910475</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001840862007030734</v>
+        <v>0.002109307003715455</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01867062323853424</v>
+        <v>0.018714642984075</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -9108,19 +9108,19 @@
         <v>10378</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5420</v>
+        <v>5921</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16476</v>
+        <v>17354</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01666937846439356</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008706561038386559</v>
+        <v>0.009511304079458754</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0264647694329745</v>
+        <v>0.02787519191698679</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -9129,19 +9129,19 @@
         <v>15324</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9610</v>
+        <v>8484</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24094</v>
+        <v>22982</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01232457887649513</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007728504993097602</v>
+        <v>0.006823194057039956</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01937781507230805</v>
+        <v>0.01848334865799939</v>
       </c>
     </row>
     <row r="15">
@@ -9233,19 +9233,19 @@
         <v>620808</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>602478</v>
+        <v>602202</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>637274</v>
+        <v>638163</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8860878233345587</v>
+        <v>0.8860878233345585</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8599245782619293</v>
+        <v>0.8595307493194829</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9095898436026537</v>
+        <v>0.9108591745962369</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1003</v>
@@ -9254,19 +9254,19 @@
         <v>646372</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>630044</v>
+        <v>632991</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>659274</v>
+        <v>659993</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8771664023911299</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8550087028057662</v>
+        <v>0.8590082195433477</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8946758111151334</v>
+        <v>0.8956519932688831</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1599</v>
@@ -9275,19 +9275,19 @@
         <v>1267181</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1241927</v>
+        <v>1241933</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1287984</v>
+        <v>1288672</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8815145660297187</v>
+        <v>0.8815145660297188</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.863946882642649</v>
+        <v>0.8639506873625395</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8959866742061873</v>
+        <v>0.896464875882175</v>
       </c>
     </row>
     <row r="17">
@@ -9304,19 +9304,19 @@
         <v>50651</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>37798</v>
+        <v>36972</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>66043</v>
+        <v>66495</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07229527567149935</v>
+        <v>0.07229527567149933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05394921155811988</v>
+        <v>0.05277056307082219</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09426366219843459</v>
+        <v>0.09490961574607644</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>101</v>
@@ -9325,19 +9325,19 @@
         <v>66623</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>55225</v>
+        <v>54930</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>81786</v>
+        <v>78147</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09041128555927125</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07494372512426806</v>
+        <v>0.07454359914371186</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1109887743451066</v>
+        <v>0.106049985719129</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>145</v>
@@ -9346,19 +9346,19 @@
         <v>117274</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>99965</v>
+        <v>99068</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>136629</v>
+        <v>139568</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0815818203911306</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06954066855233845</v>
+        <v>0.06891694870695021</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09504596791753046</v>
+        <v>0.09709034711908014</v>
       </c>
     </row>
     <row r="18">
@@ -9375,19 +9375,19 @@
         <v>29158</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19374</v>
+        <v>19190</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45107</v>
+        <v>44213</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04161690099394195</v>
+        <v>0.04161690099394194</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02765262634707981</v>
+        <v>0.02738966299158379</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06438115669893488</v>
+        <v>0.06310613363315351</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>37</v>
@@ -9396,19 +9396,19 @@
         <v>23892</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16736</v>
+        <v>16920</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31954</v>
+        <v>31856</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03242231204959894</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02271154758731346</v>
+        <v>0.02296148178514636</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04336401699124389</v>
+        <v>0.04323039954046121</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>62</v>
@@ -9417,19 +9417,19 @@
         <v>53049</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>41379</v>
+        <v>40367</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>71120</v>
+        <v>68415</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.03690361357915072</v>
+        <v>0.03690361357915074</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02878533286323819</v>
+        <v>0.02808146339190506</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04947430962777546</v>
+        <v>0.04759306362893881</v>
       </c>
     </row>
     <row r="19">
@@ -9521,19 +9521,19 @@
         <v>483148</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>461075</v>
+        <v>461839</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>500701</v>
+        <v>500826</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7928952137634954</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7566717802644524</v>
+        <v>0.757926154770186</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8217023377449484</v>
+        <v>0.8219077358505325</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>753</v>
@@ -9542,19 +9542,19 @@
         <v>452189</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>434526</v>
+        <v>433595</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>467553</v>
+        <v>468237</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7426868175200252</v>
+        <v>0.7426868175200254</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7136772041635773</v>
+        <v>0.712148768938911</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7679216686601643</v>
+        <v>0.7690444570992114</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1283</v>
@@ -9563,19 +9563,19 @@
         <v>935337</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>906373</v>
+        <v>910356</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>961277</v>
+        <v>963251</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7678011348619209</v>
+        <v>0.767801134861921</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7440254682935999</v>
+        <v>0.7472950469499499</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7890948463530729</v>
+        <v>0.7907155981187665</v>
       </c>
     </row>
     <row r="21">
@@ -9592,19 +9592,19 @@
         <v>92839</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>77134</v>
+        <v>76098</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>112147</v>
+        <v>110802</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.152358192928202</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1265848649966356</v>
+        <v>0.1248842148689036</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1840455972035671</v>
+        <v>0.1818370895807591</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>181</v>
@@ -9613,19 +9613,19 @@
         <v>112083</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>99168</v>
+        <v>98225</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>127385</v>
+        <v>128382</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1840889824594649</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1628769018880626</v>
+        <v>0.1613280912292102</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2092209152960537</v>
+        <v>0.2108574599736569</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>279</v>
@@ -9634,19 +9634,19 @@
         <v>204923</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>182410</v>
+        <v>180905</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>229723</v>
+        <v>226045</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.168217192531487</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1497371448335874</v>
+        <v>0.1485015554517142</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1885754107530492</v>
+        <v>0.1855560591553964</v>
       </c>
     </row>
     <row r="22">
@@ -9663,19 +9663,19 @@
         <v>33360</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23748</v>
+        <v>23869</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47380</v>
+        <v>46852</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05474659330830258</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03897326465284418</v>
+        <v>0.03917139437919959</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07775613098162484</v>
+        <v>0.07688824822370785</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>68</v>
@@ -9684,19 +9684,19 @@
         <v>44583</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35241</v>
+        <v>35100</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55970</v>
+        <v>55340</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07322420002050978</v>
+        <v>0.07322420002050979</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05788124886638768</v>
+        <v>0.05764952815003641</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09192707879740794</v>
+        <v>0.09089171280046456</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>103</v>
@@ -9705,19 +9705,19 @@
         <v>77943</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64019</v>
+        <v>63420</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>94204</v>
+        <v>92509</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06398167260659214</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05255199629084147</v>
+        <v>0.05206061649026317</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07733010467232072</v>
+        <v>0.07593929724383597</v>
       </c>
     </row>
     <row r="23">
@@ -9809,19 +9809,19 @@
         <v>303556</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>288013</v>
+        <v>286269</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>317032</v>
+        <v>316644</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7472965867981144</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7090333184743612</v>
+        <v>0.7047411424551807</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.780471896392477</v>
+        <v>0.7795189187365721</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>493</v>
@@ -9830,19 +9830,19 @@
         <v>258016</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>243440</v>
+        <v>244002</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>274512</v>
+        <v>273720</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.5875139129336988</v>
+        <v>0.5875139129336987</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5543235313263071</v>
+        <v>0.5556025154553024</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.625076153693351</v>
+        <v>0.6232715395322006</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>921</v>
@@ -9851,19 +9851,19 @@
         <v>561572</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>539928</v>
+        <v>539387</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>582268</v>
+        <v>581363</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.6642903233843799</v>
+        <v>0.6642903233843798</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6386864597724222</v>
+        <v>0.6380468822212577</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6887711843949085</v>
+        <v>0.6877011927288876</v>
       </c>
     </row>
     <row r="25">
@@ -9880,19 +9880,19 @@
         <v>73696</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>62233</v>
+        <v>60978</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>87877</v>
+        <v>88268</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1814255195657641</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1532056691764228</v>
+        <v>0.1501158334133457</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2163374514626638</v>
+        <v>0.217299043176544</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>246</v>
@@ -9901,19 +9901,19 @@
         <v>132056</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>117467</v>
+        <v>119802</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>146177</v>
+        <v>145402</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.300698180471403</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2674772283354475</v>
+        <v>0.2727947764663427</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3328504101210677</v>
+        <v>0.3310864517139234</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>346</v>
@@ -9922,19 +9922,19 @@
         <v>205753</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>186185</v>
+        <v>187596</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>226418</v>
+        <v>224440</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2433870431136271</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2202399009809793</v>
+        <v>0.2219095156750708</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2678323644267794</v>
+        <v>0.2654924950039843</v>
       </c>
     </row>
     <row r="26">
@@ -9951,19 +9951,19 @@
         <v>28953</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21522</v>
+        <v>21405</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>39515</v>
+        <v>39641</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07127789363612141</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05298313674944684</v>
+        <v>0.0526958763913373</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09727943809472277</v>
+        <v>0.09758867660355973</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>88</v>
@@ -9972,19 +9972,19 @@
         <v>49093</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>39761</v>
+        <v>39393</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>59647</v>
+        <v>58657</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1117879065948982</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09053773286595551</v>
+        <v>0.08970034120634962</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.135819705871659</v>
+        <v>0.1335655029593046</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>129</v>
@@ -9993,19 +9993,19 @@
         <v>78047</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>65562</v>
+        <v>64718</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>91635</v>
+        <v>92164</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09232263350199302</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07755374277847671</v>
+        <v>0.07655576800419506</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1083957681552547</v>
+        <v>0.109021570966695</v>
       </c>
     </row>
     <row r="27">
@@ -10097,19 +10097,19 @@
         <v>141381</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>126517</v>
+        <v>126776</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>155186</v>
+        <v>157058</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4557779440225058</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4078598859162564</v>
+        <v>0.4086922616584679</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5002791337008928</v>
+        <v>0.5063138143154716</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>199</v>
@@ -10118,19 +10118,19 @@
         <v>104283</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>91710</v>
+        <v>91827</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>117948</v>
+        <v>118635</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.224732899849888</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1976370951417186</v>
+        <v>0.1978895906525259</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2541810119335656</v>
+        <v>0.2556615623771812</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>412</v>
@@ -10139,19 +10139,19 @@
         <v>245665</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>225488</v>
+        <v>227720</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>266807</v>
+        <v>267619</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3173019094074158</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.291241008638208</v>
+        <v>0.2941239548160555</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3446089321092538</v>
+        <v>0.345657730320477</v>
       </c>
     </row>
     <row r="29">
@@ -10168,19 +10168,19 @@
         <v>108540</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>96189</v>
+        <v>94753</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>124919</v>
+        <v>122680</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3499046223919658</v>
+        <v>0.3499046223919659</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3100882073609696</v>
+        <v>0.3054602152598759</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4027089134063502</v>
+        <v>0.3954882419683439</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>358</v>
@@ -10189,19 +10189,19 @@
         <v>184784</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>169749</v>
+        <v>170580</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>199791</v>
+        <v>199536</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3982136797998035</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3658126015073735</v>
+        <v>0.3676023124402753</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4305532180898143</v>
+        <v>0.4300046999695842</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>509</v>
@@ -10210,19 +10210,19 @@
         <v>293324</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>273166</v>
+        <v>270359</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>314804</v>
+        <v>312923</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3788584860413076</v>
+        <v>0.3788584860413075</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3528220910490366</v>
+        <v>0.3491972021865514</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4066024782097863</v>
+        <v>0.4041726120107057</v>
       </c>
     </row>
     <row r="30">
@@ -10239,19 +10239,19 @@
         <v>60277</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>48771</v>
+        <v>49399</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>71481</v>
+        <v>72457</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1943174335855282</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1572239779540465</v>
+        <v>0.1592503156062274</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2304351920417432</v>
+        <v>0.2335826052310912</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>323</v>
@@ -10260,19 +10260,19 @@
         <v>174965</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>159584</v>
+        <v>158906</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>189801</v>
+        <v>191159</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3770534203503084</v>
+        <v>0.3770534203503085</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3439063179517328</v>
+        <v>0.3424449732802345</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4090251841305713</v>
+        <v>0.411950237751914</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>417</v>
@@ -10281,19 +10281,19 @@
         <v>235242</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>216303</v>
+        <v>215966</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>254567</v>
+        <v>255396</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3038396045512766</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2793777861708232</v>
+        <v>0.2789429738966884</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3287996577799618</v>
+        <v>0.3298708053754131</v>
       </c>
     </row>
     <row r="31">
@@ -10385,19 +10385,19 @@
         <v>3002818</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2961634</v>
+        <v>2958846</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3042118</v>
+        <v>3044706</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.8502020529395752</v>
+        <v>0.8502020529395753</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8385412169150178</v>
+        <v>0.8377520686197484</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8613292023699664</v>
+        <v>0.8620620023843347</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3889</v>
@@ -10406,19 +10406,19 @@
         <v>2885907</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2847397</v>
+        <v>2840487</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2927804</v>
+        <v>2929804</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7725124054938703</v>
+        <v>0.7725124054938702</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7622038061812495</v>
+        <v>0.7603541239252852</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.783727642019131</v>
+        <v>0.7842630508140062</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6636</v>
@@ -10427,19 +10427,19 @@
         <v>5888725</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5827149</v>
+        <v>5830206</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5944568</v>
+        <v>5947628</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.8102676488930093</v>
+        <v>0.8102676488930094</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8017950488216441</v>
+        <v>0.8022157539618204</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8179514296387238</v>
+        <v>0.8183725228591318</v>
       </c>
     </row>
     <row r="33">
@@ -10456,19 +10456,19 @@
         <v>367211</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>331383</v>
+        <v>336133</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>403154</v>
+        <v>404382</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1039700405089597</v>
+        <v>0.1039700405089596</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.09382615029498892</v>
+        <v>0.09517100071469758</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1141469758861113</v>
+        <v>0.1144945084082329</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>944</v>
@@ -10477,19 +10477,19 @@
         <v>543945</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>511348</v>
+        <v>511111</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>578616</v>
+        <v>580933</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.1456056630657861</v>
+        <v>0.145605663065786</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1368799053066969</v>
+        <v>0.136816475348721</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.154886412542166</v>
+        <v>0.1555068388472919</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1369</v>
@@ -10498,19 +10498,19 @@
         <v>911156</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>864512</v>
+        <v>860751</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>962442</v>
+        <v>958273</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1253717822928521</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1189537810104703</v>
+        <v>0.1184362282575096</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1324286258095256</v>
+        <v>0.1318550250696327</v>
       </c>
     </row>
     <row r="34">
@@ -10527,19 +10527,19 @@
         <v>161859</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>141114</v>
+        <v>141299</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>189767</v>
+        <v>188128</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04582790655146515</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03995437459948622</v>
+        <v>0.04000677859848178</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05372963551679966</v>
+        <v>0.05326562618642845</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>532</v>
@@ -10548,19 +10548,19 @@
         <v>305890</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>281250</v>
+        <v>279921</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>334955</v>
+        <v>332815</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.08188193144034366</v>
+        <v>0.08188193144034364</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07528629903472694</v>
+        <v>0.07493044249202907</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08966227364521392</v>
+        <v>0.08908938031992641</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>735</v>
@@ -10569,19 +10569,19 @@
         <v>467749</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>431093</v>
+        <v>435605</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>500353</v>
+        <v>504576</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.06436056881413851</v>
+        <v>0.06436056881413853</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05931687471088088</v>
+        <v>0.05993775795194784</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06884683392876538</v>
+        <v>0.06942788182608674</v>
       </c>
     </row>
     <row r="35">
